--- a/materiais/acidentes/Fase do Dia.xlsx
+++ b/materiais/acidentes/Fase do Dia.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">fase_dia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amanhecer           </t>
   </si>
   <si>
     <t xml:space="preserve">Anoitecer           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
   </si>
   <si>
     <t xml:space="preserve">Plena Noite         </t>
@@ -44,11 +44,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,12 +65,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,12 +109,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,7 +134,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -152,7 +143,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
